--- a/data/all/df_param.xlsx
+++ b/data/all/df_param.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pandas\data\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CDAB51-3714-44D5-956F-A3912B0D9C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E56C7A-3212-4370-BCEA-D02576C6D53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25752" yWindow="732" windowWidth="9348" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -388,6 +388,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,18 +703,35 @@
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="2"/>
-    <col min="9" max="9" width="8.796875" style="2"/>
-    <col min="11" max="11" width="8.796875" style="2"/>
-    <col min="14" max="14" width="8.796875" style="2"/>
-    <col min="19" max="19" width="8.796875" style="2"/>
-    <col min="24" max="24" width="8.796875" style="2"/>
+    <col min="2" max="2" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
@@ -760,7 +786,7 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -840,7 +866,7 @@
       <c r="E4">
         <v>428.31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G4">
@@ -924,7 +950,7 @@
       <c r="E5">
         <v>261.02999999999997</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G5">
@@ -1008,7 +1034,7 @@
       <c r="E6">
         <v>255.2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G6">
@@ -1092,7 +1118,7 @@
       <c r="E7">
         <v>454.13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G7">
@@ -1176,7 +1202,7 @@
       <c r="E8">
         <v>382.21</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G8">
@@ -1260,7 +1286,7 @@
       <c r="E9">
         <v>238.08</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G9">
@@ -1344,7 +1370,7 @@
       <c r="E10">
         <v>282.86</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G10">
@@ -1428,7 +1454,7 @@
       <c r="E11">
         <v>240.15</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G11">
@@ -1512,7 +1538,7 @@
       <c r="E12">
         <v>199.88</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G12">
@@ -1596,7 +1622,7 @@
       <c r="E13">
         <v>257.18</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G13">
@@ -1680,7 +1706,7 @@
       <c r="E14">
         <v>205.65</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G14">
@@ -1764,7 +1790,7 @@
       <c r="E15" s="5">
         <v>122.51</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="5">
@@ -1848,7 +1874,7 @@
       <c r="E16">
         <v>214.16</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G16">
@@ -1932,7 +1958,7 @@
       <c r="E17">
         <v>173.17</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G17">
@@ -2016,7 +2042,7 @@
       <c r="E18">
         <v>256.14999999999998</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G18">
@@ -2100,7 +2126,7 @@
       <c r="E19">
         <v>237.65</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G19">
@@ -2184,7 +2210,7 @@
       <c r="E20">
         <v>256.17</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G20">
@@ -2268,7 +2294,7 @@
       <c r="E21">
         <v>233.21</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G21">
@@ -2352,7 +2378,7 @@
       <c r="E22" s="5">
         <v>295.32</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="5">
